--- a/public/templates/import-kpi-v6-vi.xlsx
+++ b/public/templates/import-kpi-v6-vi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudjetSoluions\cloudjet\elms\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EA63471-9A74-4315-85CA-25A158852F2E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAB6BD-8842-4513-9299-2144B2BD6799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Tính trên các trường hợp chậm trễ, sai sót, mỗi lần vi phạm trừ 2 điểm</t>
   </si>
   <si>
-    <t>Tính tổng</t>
-  </si>
-  <si>
     <t>&gt;=</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>Số trường hợp các hồ sơ đấu thầu được thâm định sai quy trình/quy chế</t>
-  </si>
-  <si>
-    <t>Tháng gần nhất</t>
   </si>
   <si>
     <t>P22</t>
@@ -213,6 +207,12 @@
   </si>
   <si>
     <t>LOẠI KPI</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Tháng/quý gần nhất</t>
   </si>
 </sst>
 </file>
@@ -529,16 +529,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,10 +831,10 @@
   <dimension ref="A1:AU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD2" sqref="AD2"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -857,7 +857,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="16.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -880,7 +880,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="33" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -889,22 +889,22 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="33" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
-      <c r="P1" s="34" t="s">
-        <v>55</v>
+      <c r="P1" s="32" t="s">
+        <v>53</v>
       </c>
-      <c r="Q1" s="35" t="s">
+      <c r="Q1" s="33" t="s">
         <v>13</v>
       </c>
       <c r="R1" s="2" t="s">
@@ -913,10 +913,10 @@
       <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="33" t="s">
         <v>17</v>
       </c>
       <c r="V1" s="2" t="s">
@@ -925,7 +925,7 @@
       <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="X1" s="32" t="s">
         <v>20</v>
       </c>
       <c r="Y1" s="4" t="s">
@@ -974,10 +974,10 @@
       <c r="E2" s="11"/>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
@@ -1000,12 +1000,12 @@
         <v>0.2</v>
       </c>
       <c r="AA2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB2" s="15"/>
       <c r="AC2" s="28"/>
       <c r="AD2" s="31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
@@ -1027,26 +1027,26 @@
     </row>
     <row r="3" spans="1:47" ht="40.5" customHeight="1">
       <c r="A3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="12">
         <v>12</v>
@@ -1103,12 +1103,12 @@
         <v>0.2</v>
       </c>
       <c r="AA3" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AB3" s="18"/>
       <c r="AC3" s="29"/>
       <c r="AD3" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
@@ -1124,26 +1124,26 @@
     </row>
     <row r="4" spans="1:47" ht="40.5" customHeight="1">
       <c r="A4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="C4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="20"/>
       <c r="J4" s="20"/>
@@ -1166,12 +1166,12 @@
         <v>0.1</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB4" s="18"/>
       <c r="AC4" s="29"/>
       <c r="AD4" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AE4" s="8"/>
       <c r="AF4" s="8"/>
@@ -1187,26 +1187,26 @@
     </row>
     <row r="5" spans="1:47" ht="40.5" customHeight="1">
       <c r="A5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="D5" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
@@ -1229,12 +1229,12 @@
         <v>0.1</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB5" s="18"/>
       <c r="AC5" s="29"/>
       <c r="AD5" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="8"/>
       <c r="AF5" s="8"/>
@@ -1250,26 +1250,26 @@
     </row>
     <row r="6" spans="1:47" ht="40.5" customHeight="1">
       <c r="A6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -1292,12 +1292,12 @@
         <v>0.1</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB6" s="18"/>
       <c r="AC6" s="29"/>
       <c r="AD6" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AE6" s="8"/>
       <c r="AF6" s="8"/>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="7" spans="1:47" ht="40.5" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
@@ -1328,7 +1328,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
@@ -1351,12 +1351,12 @@
         <v>0.3</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB7" s="18"/>
       <c r="AC7" s="29"/>
       <c r="AD7" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AE7" s="8"/>
       <c r="AF7" s="8"/>
@@ -1420,9 +1420,9 @@
       <c r="AU8" s="8"/>
     </row>
     <row r="9" spans="1:47">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="22"/>
       <c r="E9" s="23"/>
       <c r="F9" s="23"/>

--- a/public/templates/import-kpi-v6-vi.xlsx
+++ b/public/templates/import-kpi-v6-vi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CloudjetSoluions\cloudjet\elms\static\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEAB6BD-8842-4513-9299-2144B2BD6799}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C732758F-F92D-4DED-A011-7C0728EEFAB8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>MÃ KPI</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Tháng/quý gần nhất</t>
+  </si>
+  <si>
+    <t>CÔNG TÁC CÁN BỘ</t>
   </si>
 </sst>
 </file>
@@ -831,10 +834,10 @@
   <dimension ref="A1:AU1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -968,10 +971,18 @@
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="11"/>
       <c r="G2" s="12" t="s">
         <v>62</v>
@@ -1048,57 +1059,23 @@
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="12">
-        <v>12</v>
-      </c>
-      <c r="J3" s="12">
-        <v>121</v>
-      </c>
-      <c r="K3" s="12">
-        <v>1</v>
-      </c>
-      <c r="L3" s="12">
-        <v>2</v>
-      </c>
-      <c r="M3" s="12">
-        <v>3</v>
-      </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
-        <v>2</v>
-      </c>
-      <c r="P3" s="12">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="12">
-        <v>45</v>
-      </c>
-      <c r="R3" s="12">
-        <v>4</v>
-      </c>
-      <c r="S3" s="12">
-        <v>2</v>
-      </c>
-      <c r="T3" s="12">
-        <v>5</v>
-      </c>
-      <c r="U3" s="12">
-        <v>3</v>
-      </c>
-      <c r="V3" s="12">
-        <v>5</v>
-      </c>
-      <c r="W3" s="12">
-        <v>4</v>
-      </c>
-      <c r="X3" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="12">
-        <v>15</v>
-      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
       <c r="Z3" s="13">
         <v>0.2</v>
       </c>
@@ -1318,7 +1295,9 @@
       <c r="B7" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="D7" s="12" t="s">
         <v>28</v>
       </c>
